--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.210979</v>
+        <v>0.357176</v>
       </c>
       <c r="H2">
-        <v>0.421958</v>
+        <v>0.714352</v>
       </c>
       <c r="I2">
-        <v>0.04210191553515098</v>
+        <v>0.005997202785179311</v>
       </c>
       <c r="J2">
-        <v>0.02883041274502141</v>
+        <v>0.004010340569787885</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0031922177595</v>
+        <v>0.011682512608</v>
       </c>
       <c r="R2">
-        <v>0.012768871038</v>
+        <v>0.046730050432</v>
       </c>
       <c r="S2">
-        <v>0.04210191553515098</v>
+        <v>0.005997202785179311</v>
       </c>
       <c r="T2">
-        <v>0.02883041274502141</v>
+        <v>0.004010340569787885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,25 +608,25 @@
         <v>3.036443666666667</v>
       </c>
       <c r="H3">
-        <v>9.109330999999999</v>
+        <v>9.109331000000001</v>
       </c>
       <c r="I3">
-        <v>0.6059375330305108</v>
+        <v>0.05098374027026849</v>
       </c>
       <c r="J3">
-        <v>0.6223978987506306</v>
+        <v>0.05113938180746529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0459429108985</v>
+        <v>0.09931599944933335</v>
       </c>
       <c r="R3">
-        <v>0.2756574653909999</v>
+        <v>0.5958959966960001</v>
       </c>
       <c r="S3">
-        <v>0.6059375330305108</v>
+        <v>0.05098374027026849</v>
       </c>
       <c r="T3">
-        <v>0.6223978987506306</v>
+        <v>0.05113938180746529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,34 +661,34 @@
         <v>23</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.166435666666667</v>
+      </c>
+      <c r="H4">
+        <v>9.499307000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.05316638519728214</v>
+      </c>
+      <c r="J4">
+        <v>0.0533286898433406</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>1.060785666666667</v>
-      </c>
-      <c r="H4">
-        <v>3.182357</v>
-      </c>
-      <c r="I4">
-        <v>0.2116850896956513</v>
-      </c>
-      <c r="J4">
-        <v>0.2174355405324893</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0160502175295</v>
+        <v>0.1035677777853334</v>
       </c>
       <c r="R4">
-        <v>0.096301305177</v>
+        <v>0.6214066667120002</v>
       </c>
       <c r="S4">
-        <v>0.2116850896956513</v>
+        <v>0.05316638519728214</v>
       </c>
       <c r="T4">
-        <v>0.2174355405324893</v>
+        <v>0.0533286898433406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,22 +735,22 @@
         <v>0.373212</v>
       </c>
       <c r="I5">
-        <v>0.03723816138266076</v>
+        <v>0.003133228500602422</v>
       </c>
       <c r="J5">
-        <v>0.02549982700030555</v>
+        <v>0.002095195680465199</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.002823442083</v>
+        <v>0.006103509048</v>
       </c>
       <c r="R5">
-        <v>0.011293768332</v>
+        <v>0.024414036192</v>
       </c>
       <c r="S5">
-        <v>0.03723816138266076</v>
+        <v>0.003133228500602422</v>
       </c>
       <c r="T5">
-        <v>0.02549982700030555</v>
+        <v>0.002095195680465199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3178026666666667</v>
+        <v>52.102181</v>
       </c>
       <c r="H6">
-        <v>0.953408</v>
+        <v>156.306543</v>
       </c>
       <c r="I6">
-        <v>0.06341911293941929</v>
+        <v>0.8748273820388733</v>
       </c>
       <c r="J6">
-        <v>0.0651419007446366</v>
+        <v>0.8774980271857494</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.004808513248</v>
+        <v>1.704158136148</v>
       </c>
       <c r="R6">
-        <v>0.028851079488</v>
+        <v>10.224948816888</v>
       </c>
       <c r="S6">
-        <v>0.06341911293941929</v>
+        <v>0.8748273820388733</v>
       </c>
       <c r="T6">
-        <v>0.0651419007446366</v>
+        <v>0.8774980271857494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,34 +847,34 @@
         <v>23</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7082566666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.12477</v>
+      </c>
+      <c r="I7">
+        <v>0.01189206120779433</v>
+      </c>
+      <c r="J7">
+        <v>0.01192836491319154</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.1985326666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.5955980000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.0396181874166068</v>
-      </c>
-      <c r="J7">
-        <v>0.04069442022691657</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.003003898513</v>
+        <v>0.02316565905333333</v>
       </c>
       <c r="R7">
-        <v>0.018023391078</v>
+        <v>0.13899395432</v>
       </c>
       <c r="S7">
-        <v>0.0396181874166068</v>
+        <v>0.01189206120779433</v>
       </c>
       <c r="T7">
-        <v>0.04069442022691657</v>
+        <v>0.01192836491319154</v>
       </c>
     </row>
   </sheetData>
